--- a/Cohort Definitions/Results/MSK-AI_Characterization-10MAR2020.xlsx
+++ b/Cohort Definitions/Results/MSK-AI_Characterization-10MAR2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkostka\Documents\OHDSI Network\Network Studies\MSK AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkostka\Documents\GitHub\MusculoskeletalAEsAfterAIs\Cohort Definitions\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC886CE-F905-4E2F-A1EC-21D45B28097E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215B64D9-93BB-468E-8F8A-3A7E8F2026EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8076" yWindow="516" windowWidth="14244" windowHeight="12036" xr2:uid="{DF3385B5-EA26-4B1B-8398-E42875CF350C}"/>
+    <workbookView xWindow="8820" yWindow="0" windowWidth="14244" windowHeight="12036" firstSheet="6" activeTab="7" xr2:uid="{DF3385B5-EA26-4B1B-8398-E42875CF350C}"/>
   </bookViews>
   <sheets>
     <sheet name="All Prevalence" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="21">
   <si>
     <t>Covariate</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>IQVIA UK THIN 2018-09</t>
+  </si>
+  <si>
+    <t>IQVIA Disease Analyser Belgium 2019-09</t>
   </si>
 </sst>
 </file>
@@ -289,6 +292,16 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -301,16 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -628,45 +631,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C2A77F-746D-48A4-9D01-2F8431C3A2EA}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,10 +682,10 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -708,7 +711,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
@@ -734,7 +737,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
@@ -760,7 +763,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -786,7 +789,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
@@ -812,7 +815,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
@@ -838,7 +841,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
@@ -864,7 +867,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
@@ -890,7 +893,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
@@ -916,7 +919,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5">
@@ -942,7 +945,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -968,7 +971,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -994,7 +997,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
@@ -1020,7 +1023,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1046,7 +1049,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
@@ -1072,7 +1075,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2">
@@ -1098,7 +1101,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2">
@@ -1124,7 +1127,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2">
@@ -1150,7 +1153,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2">
@@ -1176,7 +1179,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2">
@@ -1202,7 +1205,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="2">
@@ -1228,7 +1231,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="2">
@@ -1254,7 +1257,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2">
@@ -1280,7 +1283,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="5">
@@ -1306,7 +1309,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="5">
@@ -1332,7 +1335,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="2">
@@ -1358,7 +1361,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="2">
@@ -1384,7 +1387,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="2">
@@ -1410,7 +1413,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2">
@@ -1436,7 +1439,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2">
@@ -1462,7 +1465,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="2">
@@ -1488,7 +1491,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="2">
@@ -1514,7 +1517,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="2">
@@ -1540,7 +1543,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="5">
@@ -1566,7 +1569,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="2">
@@ -1592,7 +1595,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="2">
@@ -1618,7 +1621,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="2">
@@ -1644,7 +1647,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2">
@@ -1670,7 +1673,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="2">
@@ -1696,7 +1699,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="2">
@@ -1722,7 +1725,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="2">
@@ -1748,7 +1751,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="2">
@@ -1774,7 +1777,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="2">
@@ -1800,7 +1803,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="5">
@@ -1826,7 +1829,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="2">
@@ -1852,7 +1855,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="2">
@@ -1878,7 +1881,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="2">
@@ -1904,7 +1907,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="2">
@@ -1930,7 +1933,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="2">
@@ -1956,7 +1959,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="2">
@@ -1982,7 +1985,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="2">
@@ -2008,7 +2011,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="2">
@@ -2034,7 +2037,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="2">
@@ -2060,7 +2063,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="5">
@@ -2086,7 +2089,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B57" s="5">
@@ -2112,7 +2115,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="2">
@@ -2138,7 +2141,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="2">
@@ -2164,7 +2167,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="2">
@@ -2190,7 +2193,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="2">
@@ -2216,7 +2219,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="2">
@@ -2242,7 +2245,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="2">
@@ -2268,7 +2271,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="2">
@@ -2294,7 +2297,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="2">
@@ -2320,7 +2323,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="2">
@@ -2346,7 +2349,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B67" s="2">
@@ -2372,7 +2375,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B68" s="2">
@@ -2398,7 +2401,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="2">
@@ -2424,7 +2427,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B70" s="2">
@@ -2450,7 +2453,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="2">
@@ -2476,7 +2479,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B72" s="2">
@@ -2502,7 +2505,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B73" s="2">
@@ -2528,7 +2531,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B74" s="2">
@@ -2554,7 +2557,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B75" s="2">
@@ -2580,7 +2583,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="2">
@@ -2606,7 +2609,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B77" s="5">
@@ -2631,14 +2634,300 @@
         <v>0.1188</v>
       </c>
     </row>
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>87</v>
+      </c>
+      <c r="E78" s="4">
+        <v>8.72E-2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>48</v>
+      </c>
+      <c r="G78" s="4">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>-0.105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>93</v>
+      </c>
+      <c r="E79" s="4">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="F79" s="2">
+        <v>110</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0.1111</v>
+      </c>
+      <c r="H79" s="2">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>39</v>
+      </c>
+      <c r="E80" s="4">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45</v>
+      </c>
+      <c r="G80" s="4">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>104</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.1042</v>
+      </c>
+      <c r="F81" s="2">
+        <v>95</v>
+      </c>
+      <c r="G81" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H81" s="2">
+        <v>-1.84E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>108</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.1082</v>
+      </c>
+      <c r="F82" s="2">
+        <v>114</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0.1152</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>110</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="F83" s="2">
+        <v>116</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0.1172</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>94</v>
+      </c>
+      <c r="E84" s="4">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>99</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>90</v>
+      </c>
+      <c r="E85" s="4">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="F85" s="2">
+        <v>94</v>
+      </c>
+      <c r="G85" s="4">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>83</v>
+      </c>
+      <c r="E86" s="4">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" s="4">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="H86" s="2">
+        <v>-1.09E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>116</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0.1162</v>
+      </c>
+      <c r="F87" s="5">
+        <v>118</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.1192</v>
+      </c>
+      <c r="H87" s="5">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>74</v>
+      </c>
+      <c r="E88" s="7">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="F88" s="5">
+        <v>73</v>
+      </c>
+      <c r="G88" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="H88" s="5">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2647,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C58CE1-5283-4AF6-B897-9153BA3C8283}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+      <selection activeCell="B9" sqref="B9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2659,27 +2948,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2704,10 +2993,10 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
@@ -2739,7 +3028,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
@@ -2771,7 +3060,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
@@ -2803,7 +3092,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6">
@@ -2835,7 +3124,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
@@ -2867,7 +3156,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
@@ -2896,6 +3185,38 @@
       </c>
       <c r="J8" s="5">
         <v>-0.20880000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>986</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>972</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-6.3200000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2911,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189B8DD9-040D-4F9B-A15F-C8892DCE6547}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2923,35 +3244,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2964,10 +3285,10 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -2996,7 +3317,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
@@ -3025,7 +3346,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
@@ -3054,7 +3375,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -3083,7 +3404,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
@@ -3112,7 +3433,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
@@ -3141,7 +3462,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
@@ -3170,7 +3491,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
@@ -3199,7 +3520,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
@@ -3228,7 +3549,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5">
@@ -3257,7 +3578,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -3286,7 +3607,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
@@ -3315,7 +3636,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="5">
@@ -3344,7 +3665,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -3373,7 +3694,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
@@ -3402,7 +3723,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2">
@@ -3431,7 +3752,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2">
@@ -3460,7 +3781,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2">
@@ -3489,7 +3810,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2">
@@ -3518,7 +3839,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2">
@@ -3547,7 +3868,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="2">
@@ -3576,7 +3897,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="2">
@@ -3605,7 +3926,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5">
@@ -3634,7 +3955,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="5">
@@ -3663,7 +3984,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2">
@@ -3692,7 +4013,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="2">
@@ -3721,7 +4042,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="2">
@@ -3750,7 +4071,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="2">
@@ -3779,7 +4100,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2">
@@ -3808,7 +4129,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2">
@@ -3837,7 +4158,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="2">
@@ -3866,7 +4187,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="2">
@@ -3895,7 +4216,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="5">
@@ -3924,7 +4245,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="2">
@@ -3953,7 +4274,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="2">
@@ -3982,7 +4303,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="2">
@@ -4011,7 +4332,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="2">
@@ -4040,7 +4361,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2">
@@ -4069,7 +4390,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="2">
@@ -4098,7 +4419,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="2">
@@ -4127,7 +4448,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="2">
@@ -4156,7 +4477,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="2">
@@ -4185,7 +4506,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="5">
@@ -4214,7 +4535,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="2">
@@ -4243,7 +4564,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="2">
@@ -4272,7 +4593,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="2">
@@ -4301,7 +4622,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="2">
@@ -4330,7 +4651,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="2">
@@ -4359,7 +4680,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="2">
@@ -4388,7 +4709,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="2">
@@ -4417,7 +4738,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="2">
@@ -4446,7 +4767,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="2">
@@ -4475,7 +4796,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="5">
@@ -4504,7 +4825,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="5">
@@ -4533,7 +4854,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B57" s="2">
@@ -4562,7 +4883,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="2">
@@ -4591,7 +4912,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="2">
@@ -4620,7 +4941,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="2">
@@ -4649,7 +4970,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="2">
@@ -4678,7 +4999,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="2">
@@ -4707,7 +5028,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="2">
@@ -4736,7 +5057,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="2">
@@ -4765,7 +5086,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B65" s="2">
@@ -4794,7 +5115,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="2">
@@ -4823,7 +5144,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="2">
@@ -4852,7 +5173,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B68" s="2">
@@ -4881,7 +5202,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="2">
@@ -4910,7 +5231,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B70" s="2">
@@ -4939,7 +5260,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="2">
@@ -4968,7 +5289,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B72" s="2">
@@ -4997,7 +5318,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B73" s="2">
@@ -5026,7 +5347,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B74" s="2">
@@ -5055,7 +5376,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B75" s="2">
@@ -5084,7 +5405,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="5">
@@ -5113,7 +5434,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B77" s="2">
@@ -5142,7 +5463,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="2">
@@ -5171,7 +5492,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="2">
@@ -5200,7 +5521,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B80" s="2">
@@ -5229,7 +5550,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="2">
@@ -5258,7 +5579,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B82" s="2">
@@ -5287,7 +5608,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B83" s="2">
@@ -5316,7 +5637,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B84" s="2">
@@ -5345,7 +5666,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B85" s="2">
@@ -5374,7 +5695,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B86" s="5">
@@ -5403,7 +5724,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B87" s="5">
@@ -5431,15 +5752,334 @@
         <v>-3.7000000000000002E-3</v>
       </c>
     </row>
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>87</v>
+      </c>
+      <c r="F88" s="4">
+        <v>8.72E-2</v>
+      </c>
+      <c r="G88" s="2">
+        <v>48</v>
+      </c>
+      <c r="H88" s="4">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="I88" s="2">
+        <v>-0.105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>93</v>
+      </c>
+      <c r="F89" s="4">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="G89" s="2">
+        <v>110</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0.1111</v>
+      </c>
+      <c r="I89" s="2">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>39</v>
+      </c>
+      <c r="F90" s="4">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="G90" s="2">
+        <v>45</v>
+      </c>
+      <c r="H90" s="4">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>104</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.1042</v>
+      </c>
+      <c r="G91" s="2">
+        <v>95</v>
+      </c>
+      <c r="H91" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I91" s="2">
+        <v>-1.84E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>108</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.1082</v>
+      </c>
+      <c r="G92" s="2">
+        <v>114</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0.1152</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>110</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="G93" s="2">
+        <v>116</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0.1172</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>94</v>
+      </c>
+      <c r="F94" s="4">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>99</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>90</v>
+      </c>
+      <c r="F95" s="4">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="G95" s="2">
+        <v>94</v>
+      </c>
+      <c r="H95" s="4">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>83</v>
+      </c>
+      <c r="F96" s="4">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>78</v>
+      </c>
+      <c r="H96" s="4">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="I96" s="2">
+        <v>-1.09E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>116</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.1162</v>
+      </c>
+      <c r="G97" s="2">
+        <v>118</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0.1192</v>
+      </c>
+      <c r="I97" s="2">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>74</v>
+      </c>
+      <c r="F98" s="7">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="G98" s="5">
+        <v>73</v>
+      </c>
+      <c r="H98" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="I98" s="5">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5447,36 +6087,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B02D83-EDAC-414A-BABE-810BE78179EF}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+      <selection activeCell="B9" sqref="B9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5501,10 +6141,10 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
@@ -5536,7 +6176,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
@@ -5568,7 +6208,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
@@ -5600,7 +6240,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6">
@@ -5632,7 +6272,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
@@ -5664,7 +6304,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
@@ -5693,6 +6333,38 @@
       </c>
       <c r="J8" s="5">
         <v>-0.31769999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2812.95</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2057.09</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2202</v>
+      </c>
+      <c r="F9" s="5">
+        <v>990</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2884.12</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2147.6999999999998</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2256</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.3900000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5708,36 +6380,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E155DB06-82CE-4320-B57C-E50BF3F13D9D}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+      <selection activeCell="B9" sqref="B9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5762,10 +6434,10 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
@@ -5797,7 +6469,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
@@ -5829,7 +6501,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
@@ -5861,7 +6533,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6">
@@ -5893,7 +6565,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
@@ -5925,7 +6597,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
@@ -5954,6 +6626,38 @@
       </c>
       <c r="J8" s="5">
         <v>0.38529999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1262.08</v>
+      </c>
+      <c r="D9" s="5">
+        <v>940.06</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1041</v>
+      </c>
+      <c r="F9" s="5">
+        <v>990</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1369.81</v>
+      </c>
+      <c r="H9" s="5">
+        <v>977.8</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1157</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7.9399999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5969,36 +6673,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428ADE9D-5875-414D-B790-E418791AD301}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+      <selection activeCell="B9" sqref="B9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6023,10 +6727,10 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
@@ -6058,7 +6762,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
@@ -6090,7 +6794,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
@@ -6122,7 +6826,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6">
@@ -6154,7 +6858,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
@@ -6186,7 +6890,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
@@ -6215,6 +6919,38 @@
       </c>
       <c r="J8" s="5">
         <v>-0.1331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>69.69</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>69</v>
+      </c>
+      <c r="F9" s="5">
+        <v>990</v>
+      </c>
+      <c r="G9" s="5">
+        <v>69.44</v>
+      </c>
+      <c r="H9" s="5">
+        <v>9.36</v>
+      </c>
+      <c r="I9" s="5">
+        <v>68</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-1.8800000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6230,36 +6966,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6D798E-B314-4F58-9FEA-F1DAC8D01687}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+      <selection activeCell="B9" sqref="B9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6284,10 +7020,10 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
@@ -6319,7 +7055,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
@@ -6351,7 +7087,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
@@ -6383,7 +7119,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6">
@@ -6415,7 +7151,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
@@ -6447,7 +7183,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
@@ -6476,6 +7212,38 @@
       </c>
       <c r="J8" s="5">
         <v>0.38579999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1262.08</v>
+      </c>
+      <c r="D9" s="5">
+        <v>940.06</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1041</v>
+      </c>
+      <c r="F9" s="5">
+        <v>990</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1369.81</v>
+      </c>
+      <c r="H9" s="5">
+        <v>977.8</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1157</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7.9399999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6493,7 +7261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D1E46D-09C4-4EB4-A1AD-93C3E45C78F9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6503,31 +7271,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6540,10 +7308,10 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -6569,16 +7337,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cohort Definitions/Results/MSK-AI_Characterization-10MAR2020.xlsx
+++ b/Cohort Definitions/Results/MSK-AI_Characterization-10MAR2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkostka\Documents\GitHub\MusculoskeletalAEsAfterAIs\Cohort Definitions\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215B64D9-93BB-468E-8F8A-3A7E8F2026EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94797723-4449-41F4-B6EA-325717C8E2CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="0" windowWidth="14244" windowHeight="12036" firstSheet="6" activeTab="7" xr2:uid="{DF3385B5-EA26-4B1B-8398-E42875CF350C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" firstSheet="4" activeTab="7" xr2:uid="{DF3385B5-EA26-4B1B-8398-E42875CF350C}"/>
   </bookViews>
   <sheets>
     <sheet name="All Prevalence" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="22">
   <si>
     <t>Covariate</t>
   </si>
@@ -100,7 +100,10 @@
     <t>IQVIA UK THIN 2018-09</t>
   </si>
   <si>
-    <t>IQVIA Disease Analyser Belgium 2019-09</t>
+    <t>IQVIA Belgium LPD 2019-09</t>
+  </si>
+  <si>
+    <t>IQVIA US Hospital Charge Datamaster 2019-07</t>
   </si>
 </sst>
 </file>
@@ -297,16 +300,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -631,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C2A77F-746D-48A4-9D01-2F8431C3A2EA}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A88"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,13 +648,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -662,14 +665,14 @@
         <v>4</v>
       </c>
       <c r="G1" s="15"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -682,7 +685,7 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -2918,6 +2921,318 @@
       </c>
       <c r="H88" s="5">
         <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1518</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.1067</v>
+      </c>
+      <c r="F89" s="2">
+        <v>217</v>
+      </c>
+      <c r="G89" s="4">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="H89" s="2">
+        <v>-6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1165</v>
+      </c>
+      <c r="E90" s="4">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="F90" s="2">
+        <v>159</v>
+      </c>
+      <c r="G90" s="4">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="H90" s="2">
+        <v>-6.88E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>560</v>
+      </c>
+      <c r="E91" s="4">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>164</v>
+      </c>
+      <c r="G91" s="4">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="H91" s="2">
+        <v>5.9900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>805</v>
+      </c>
+      <c r="E92" s="4">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="F92" s="2">
+        <v>216</v>
+      </c>
+      <c r="G92" s="4">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="H92" s="2">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1412</v>
+      </c>
+      <c r="E93" s="4">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="F93" s="2">
+        <v>343</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0.1215</v>
+      </c>
+      <c r="H93" s="2">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>123</v>
+      </c>
+      <c r="E94" s="4">
+        <v>8.6E-3</v>
+      </c>
+      <c r="F94" s="2">
+        <v>38</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H94" s="2">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2016</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="5">
+        <v>672</v>
+      </c>
+      <c r="E95" s="5">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="F95" s="5">
+        <v>108</v>
+      </c>
+      <c r="G95" s="5">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="H95" s="5">
+        <v>-3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1614</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.1134</v>
+      </c>
+      <c r="F96" s="2">
+        <v>289</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0.1023</v>
+      </c>
+      <c r="H96" s="2">
+        <v>-2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>952</v>
+      </c>
+      <c r="E97" s="4">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="F97" s="2">
+        <v>168</v>
+      </c>
+      <c r="G97" s="4">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="H97" s="2">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1892</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F98" s="5">
+        <v>399</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1832</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.1288</v>
+      </c>
+      <c r="F99" s="2">
+        <v>386</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="H99" s="2">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1683</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.1183</v>
+      </c>
+      <c r="F100" s="2">
+        <v>337</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.1193</v>
+      </c>
+      <c r="H100" s="2">
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2936,10 +3251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C58CE1-5283-4AF6-B897-9153BA3C8283}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2948,7 +3263,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -2963,12 +3278,12 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2993,7 +3308,7 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -3217,6 +3532,38 @@
       </c>
       <c r="J9" s="5">
         <v>-6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6">
+        <v>13726</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.07</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.49</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2693</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4.45</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-0.13389999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3232,10 +3579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189B8DD9-040D-4F9B-A15F-C8892DCE6547}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:I97"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3244,16 +3591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -3264,15 +3611,15 @@
         <v>4</v>
       </c>
       <c r="H1" s="15"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3285,7 +3632,7 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -6069,6 +6416,354 @@
       </c>
       <c r="I98" s="5">
         <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1518</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0.1067</v>
+      </c>
+      <c r="G99" s="2">
+        <v>217</v>
+      </c>
+      <c r="H99" s="4">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="I99" s="2">
+        <v>-6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1165</v>
+      </c>
+      <c r="F100" s="4">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="G100" s="2">
+        <v>159</v>
+      </c>
+      <c r="H100" s="4">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="I100" s="2">
+        <v>-6.88E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>560</v>
+      </c>
+      <c r="F101" s="4">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G101" s="2">
+        <v>164</v>
+      </c>
+      <c r="H101" s="4">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="I101" s="2">
+        <v>5.9900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>805</v>
+      </c>
+      <c r="F102" s="4">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="G102" s="2">
+        <v>216</v>
+      </c>
+      <c r="H102" s="4">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="I102" s="2">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1412</v>
+      </c>
+      <c r="F103" s="4">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="G103" s="2">
+        <v>343</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0.1215</v>
+      </c>
+      <c r="I103" s="2">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>123</v>
+      </c>
+      <c r="F104" s="4">
+        <v>8.6E-3</v>
+      </c>
+      <c r="G104" s="2">
+        <v>38</v>
+      </c>
+      <c r="H104" s="4">
+        <v>1.35E-2</v>
+      </c>
+      <c r="I104" s="2">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>672</v>
+      </c>
+      <c r="F105" s="4">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="G105" s="2">
+        <v>108</v>
+      </c>
+      <c r="H105" s="4">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="I105" s="2">
+        <v>-3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1614</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0.1134</v>
+      </c>
+      <c r="G106" s="2">
+        <v>289</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0.1023</v>
+      </c>
+      <c r="I106" s="2">
+        <v>-2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>952</v>
+      </c>
+      <c r="F107" s="4">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="G107" s="2">
+        <v>168</v>
+      </c>
+      <c r="H107" s="4">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="I107" s="2">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1892</v>
+      </c>
+      <c r="F108" s="7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G108" s="5">
+        <v>399</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="I108" s="5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1832</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0.1288</v>
+      </c>
+      <c r="G109" s="2">
+        <v>386</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="I109" s="2">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1683</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0.1183</v>
+      </c>
+      <c r="G110" s="5">
+        <v>337</v>
+      </c>
+      <c r="H110" s="7">
+        <v>0.1193</v>
+      </c>
+      <c r="I110" s="5">
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6087,16 +6782,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B02D83-EDAC-414A-BABE-810BE78179EF}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -6111,12 +6806,12 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6141,7 +6836,7 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -6365,6 +7060,38 @@
       </c>
       <c r="J9" s="5">
         <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6">
+        <v>14228</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1562.64</v>
+      </c>
+      <c r="D10" s="5">
+        <v>871.66</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1314</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2824</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1494.19</v>
+      </c>
+      <c r="H10" s="5">
+        <v>827.01</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1239</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-5.7000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6380,16 +7107,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E155DB06-82CE-4320-B57C-E50BF3F13D9D}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -6404,12 +7131,12 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6434,7 +7161,7 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -6658,6 +7385,38 @@
       </c>
       <c r="J9" s="5">
         <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6">
+        <v>14228</v>
+      </c>
+      <c r="C10" s="5">
+        <v>786.04</v>
+      </c>
+      <c r="D10" s="5">
+        <v>816.07</v>
+      </c>
+      <c r="E10" s="5">
+        <v>493</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2824</v>
+      </c>
+      <c r="G10" s="5">
+        <v>874.27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>857.79</v>
+      </c>
+      <c r="I10" s="5">
+        <v>584</v>
+      </c>
+      <c r="J10" s="5">
+        <v>7.4499999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6673,16 +7432,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428ADE9D-5875-414D-B790-E418791AD301}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -6697,12 +7456,12 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6727,7 +7486,7 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -6951,6 +7710,38 @@
       </c>
       <c r="J9" s="5">
         <v>-1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6">
+        <v>14228</v>
+      </c>
+      <c r="C10" s="5">
+        <v>70.08</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E10" s="5">
+        <v>70</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2824</v>
+      </c>
+      <c r="G10" s="5">
+        <v>69.290000000000006</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8.57</v>
+      </c>
+      <c r="I10" s="5">
+        <v>69</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-6.6299999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6966,16 +7757,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6D798E-B314-4F58-9FEA-F1DAC8D01687}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -6990,12 +7781,12 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7020,7 +7811,7 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -7244,6 +8035,38 @@
       </c>
       <c r="J9" s="5">
         <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6">
+        <v>14228</v>
+      </c>
+      <c r="C10" s="5">
+        <v>786.04</v>
+      </c>
+      <c r="D10" s="5">
+        <v>816.07</v>
+      </c>
+      <c r="E10" s="5">
+        <v>493</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2824</v>
+      </c>
+      <c r="G10" s="5">
+        <v>874.27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>857.79</v>
+      </c>
+      <c r="I10" s="5">
+        <v>584</v>
+      </c>
+      <c r="J10" s="5">
+        <v>7.4499999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7271,13 +8094,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -7288,14 +8111,14 @@
         <v>4</v>
       </c>
       <c r="G1" s="15"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7308,7 +8131,7 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
